--- a/ci/archivos/Plantilla.xlsx
+++ b/ci/archivos/Plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proy_git\Biblat\ci\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32281725-7CB2-4010-AB99-DFC7620396FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D195D91-0903-402A-BB94-855D806C743C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,28 +36,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1558,13 +1536,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1826,8 +1804,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3188,12 +3166,12 @@
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="2" cm="1">
-        <f t="array" ref="D45">SUM(D33+D36:D44)</f>
+      <c r="D45" s="2">
+        <f>SUM(D33,D36:D44)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="2" cm="1">
-        <f t="array" ref="E45">SUM(E33+E36:E44)</f>
+      <c r="E45" s="2">
+        <f>SUM(E33,E36:E44)</f>
         <v>0</v>
       </c>
       <c r="F45" s="1"/>
@@ -10115,8 +10093,8 @@
         <v>70</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="23"/>
@@ -10143,8 +10121,8 @@
         <v>71</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="85"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="23"/>
@@ -10171,8 +10149,8 @@
         <v>72</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="23"/>
@@ -10199,8 +10177,8 @@
         <v>73</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="85"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="23"/>
@@ -10747,7 +10725,7 @@
     </row>
     <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="87" t="s">
         <v>89</v>
       </c>
       <c r="C49" s="45" t="s">
@@ -11008,9 +10986,9 @@
       <c r="B58" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="86"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="84"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="85"/>
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
       <c r="H58" s="23"/>
@@ -11036,9 +11014,9 @@
       <c r="B59" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="86"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="84"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="85"/>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
       <c r="H59" s="23"/>
@@ -11064,9 +11042,9 @@
       <c r="B60" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="86"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="84"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="85"/>
       <c r="F60" s="28"/>
       <c r="G60" s="28"/>
       <c r="H60" s="23"/>
@@ -11092,9 +11070,9 @@
       <c r="B61" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="86"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="84"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="85"/>
       <c r="F61" s="28"/>
       <c r="G61" s="28"/>
       <c r="H61" s="23"/>
@@ -11120,9 +11098,9 @@
       <c r="B62" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="86"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="84"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="85"/>
       <c r="F62" s="28"/>
       <c r="G62" s="28"/>
       <c r="H62" s="23"/>
@@ -11148,9 +11126,9 @@
       <c r="B63" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="86"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="84"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="85"/>
       <c r="F63" s="28"/>
       <c r="G63" s="28"/>
       <c r="H63" s="23"/>
@@ -11176,9 +11154,9 @@
       <c r="B64" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="86"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="84"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="85"/>
       <c r="F64" s="28"/>
       <c r="G64" s="28"/>
       <c r="H64" s="23"/>
@@ -11204,9 +11182,9 @@
       <c r="B65" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="86"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="84"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="85"/>
       <c r="F65" s="28"/>
       <c r="G65" s="28"/>
       <c r="H65" s="23"/>
@@ -11232,9 +11210,9 @@
       <c r="B66" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="86"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="84"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="85"/>
       <c r="F66" s="28"/>
       <c r="G66" s="28"/>
       <c r="H66" s="23"/>
@@ -11260,9 +11238,9 @@
       <c r="B67" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="86"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="84"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="85"/>
       <c r="F67" s="28"/>
       <c r="G67" s="28"/>
       <c r="H67" s="23"/>
@@ -11288,9 +11266,9 @@
       <c r="B68" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="86"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="84"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="85"/>
       <c r="F68" s="28"/>
       <c r="G68" s="28"/>
       <c r="H68" s="23"/>
@@ -11316,9 +11294,9 @@
       <c r="B69" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="86"/>
-      <c r="D69" s="87"/>
-      <c r="E69" s="84"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="85"/>
       <c r="F69" s="28"/>
       <c r="G69" s="28"/>
       <c r="H69" s="23"/>
@@ -11344,9 +11322,9 @@
       <c r="B70" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="86"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="84"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="85"/>
       <c r="F70" s="28"/>
       <c r="G70" s="28"/>
       <c r="H70" s="23"/>
@@ -11372,9 +11350,9 @@
       <c r="B71" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="86"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="84"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="85"/>
       <c r="F71" s="28"/>
       <c r="G71" s="28"/>
       <c r="H71" s="23"/>
@@ -11400,9 +11378,9 @@
       <c r="B72" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="86"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="84"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="85"/>
       <c r="F72" s="28"/>
       <c r="G72" s="28"/>
       <c r="H72" s="23"/>
@@ -18131,6 +18109,16 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
     <mergeCell ref="C70:E70"/>
     <mergeCell ref="C71:E71"/>
     <mergeCell ref="C72:E72"/>
@@ -18141,16 +18129,6 @@
     <mergeCell ref="C64:E64"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C50" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
